--- a/botCode/workWithExcelFile/excelDatabase/TEACHERS/ЩЕРБИНАЗА.xlsx
+++ b/botCode/workWithExcelFile/excelDatabase/TEACHERS/ЩЕРБИНАЗА.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23427"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsen\Desktop\Новая папка (5)\TEACHERS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_8EA6E5E8E57D2972315440104C08E4C7A61AD2A9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{98D48770-ECF0-4E66-9CFC-16BD8A114719}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ЩЕРБИНАЗА" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -95,8 +105,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,15 +549,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист12"/>
   <dimension ref="A2:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
@@ -555,7 +565,7 @@
     <col min="4" max="4" width="29" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -563,7 +573,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,7 +581,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -579,7 +589,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -587,7 +597,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -595,7 +605,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -603,7 +613,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -611,7 +621,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -619,7 +629,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -627,7 +637,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -635,7 +645,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -643,20 +653,20 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -670,7 +680,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -684,7 +694,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -698,7 +708,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -708,7 +718,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -718,7 +728,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -732,7 +742,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -740,7 +750,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -748,7 +758,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -756,7 +766,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -764,7 +774,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -778,7 +788,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -792,7 +802,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="6">
         <v>3</v>
       </c>
@@ -806,7 +816,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -820,7 +830,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -830,7 +840,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -840,7 +850,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -850,7 +860,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -864,7 +874,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -878,13 +888,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -892,7 +902,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -906,7 +916,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -920,7 +930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -934,7 +944,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -948,7 +958,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -962,7 +972,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>6</v>
       </c>
@@ -976,7 +986,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>7</v>
       </c>
@@ -987,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>8</v>
       </c>
@@ -1001,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="1">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>9</v>
       </c>
@@ -1012,7 +1022,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1030,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -1034,7 +1044,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -1048,7 +1058,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -1072,7 +1082,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -1082,7 +1092,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -1092,7 +1102,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>7</v>
       </c>
@@ -1106,7 +1116,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>8</v>
       </c>
@@ -1114,7 +1124,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>9</v>
       </c>
@@ -1122,7 +1132,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -1130,7 +1140,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -1138,7 +1148,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -1146,7 +1156,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>3</v>
       </c>
@@ -1154,7 +1164,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>4</v>
       </c>
@@ -1162,7 +1172,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>5</v>
       </c>
@@ -1170,7 +1180,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>6</v>
       </c>
@@ -1178,7 +1188,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>7</v>
       </c>
@@ -1186,7 +1196,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>8</v>
       </c>
@@ -1194,7 +1204,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>9</v>
       </c>
